--- a/biology/Botanique/Jardin_ethnobotanique/Jardin_ethnobotanique.xlsx
+++ b/biology/Botanique/Jardin_ethnobotanique/Jardin_ethnobotanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un jardin ethnobotanique est un jardin botanique qui accueille des plantes connues pour leur relation étroite avec l’homme. Il a une importance pédagogique et culturelle, dans la mesure où il raconte l’histoire de l’homme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jardin ethnobotanique est un jardin botanique qui accueille des plantes connues pour leur relation étroite avec l’homme. Il a une importance pédagogique et culturelle, dans la mesure où il raconte l’histoire de l’homme.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'ethnobotanique se développe à partir des années 1960[2], notamment avec l'établissement d'un laboratoire d’ethnobotanique au Muséum national d'histoire naturelle en 1967[3]. Le musée de Salagon dans les Alpes-de-Haute-Provence, à la fois musée ethnologique et jardins ethnobotaniques, organise à partir de 2001 un séminaire annuel d’ethnobotanique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'ethnobotanique se développe à partir des années 1960, notamment avec l'établissement d'un laboratoire d’ethnobotanique au Muséum national d'histoire naturelle en 1967. Le musée de Salagon dans les Alpes-de-Haute-Provence, à la fois musée ethnologique et jardins ethnobotaniques, organise à partir de 2001 un séminaire annuel d’ethnobotanique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Jardins ethnobotaniques en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jardins du musée départemental de Salagon sont organisés en plusieurs thèmes ethnobotaniques : plantes médiévales, plantes aromatiques, plantes médicinales, plantes des temps modernes[5].
-Les jardins créoles dans les îles des Caraïbes sont réhabilités dans la veine des recherches locales en ethnobotanique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins du musée départemental de Salagon sont organisés en plusieurs thèmes ethnobotaniques : plantes médiévales, plantes aromatiques, plantes médicinales, plantes des temps modernes.
+Les jardins créoles dans les îles des Caraïbes sont réhabilités dans la veine des recherches locales en ethnobotanique.
 </t>
         </is>
       </c>
